--- a/biology/Zoologie/Cordelia_(papillon)/Cordelia_(papillon).xlsx
+++ b/biology/Zoologie/Cordelia_(papillon)/Cordelia_(papillon).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cordelia est un genre de lépidoptères de la famille des Lycaenidae et de la sous-famille des Theclinae. 
 </t>
@@ -511,7 +523,9 @@
           <t>Historique et dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Cordelia a été décrit par Shirôzu et Yamamoto en 1956.
 </t>
@@ -542,14 +556,16 @@
           <t>Liste des espèces et sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Cordelia comes (Leech, 1890) - présent en Chine.
 Cordelia comes wilemaniella (Matsumura, 1919 (1929?)) - à Taïwan.
 Cordelia comes koizumii Koiwaya, 1996
 Cordelia kitawakii Koiwaya, 1996
 Cordelia minerva (Leech, 1890) - présent en Chine.
-Cordelia minerva jinfoshanensis Koiwaya, 2000[1].</t>
+Cordelia minerva jinfoshanensis Koiwaya, 2000.</t>
         </is>
       </c>
     </row>
